--- a/biology/Botanique/Citrullus_colocynthis/Citrullus_colocynthis.xlsx
+++ b/biology/Botanique/Citrullus_colocynthis/Citrullus_colocynthis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coloquinte, Coloquinte officinale
 Citrullus colocynthis, la Coloquinte officinale ou coloquinte vraie, est une espèce de plante à fleurs de la famille des Cucurbitacées, sous-famille des Cucurbitoideae, tribu des Benincaseae, sous-tribu des Benincasinae. C'est une plante herbacée vivace cultivée dans le bassin méditerranéen et dans les pays tropicaux comme plante médicinale pour la pulpe de ses fruits, qui est amère et toxique et parfois pour ses graines huileuses comestibles.
@@ -512,11 +524,13 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nom scientifique valide : Citrullus colocynthis (L.) Schrad., 1838[1]
-Noms vulgaires (vulgarisation scientifique) recommandés ou typiques en français : Coloquinte[2],[3],[4] ou Coloquinte officinale[5],[2]
-Autres noms vulgaires ou noms vernaculaires (langage courant) pouvant désigner éventuellement d'autres espèces : chicotin[2], citrelle[2], concombre amère[3]. de : Koloquinte, en : colocynth, bitter-apple, es : coloquíntida.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nom scientifique valide : Citrullus colocynthis (L.) Schrad., 1838
+Noms vulgaires (vulgarisation scientifique) recommandés ou typiques en français : Coloquinte ou Coloquinte officinale,
+Autres noms vulgaires ou noms vernaculaires (langage courant) pouvant désigner éventuellement d'autres espèces : chicotin, citrelle, concombre amère. de : Koloquinte, en : colocynth, bitter-apple, es : coloquíntida.
 Coloquinte désigne aussi en français de nombreuses courges, ou autres cucurbitacées ornementales. Il existe aussi une certaine confusion entre cette espèce et la pastèque, dont les graines sont utilisées de la même façon et qui portait autrefois le nom scientifique de Colocynthis citrullus.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante rampante herbacée, vivace, à tiges anguleuses et rudes.
 Les feuilles, alternes, longues de 5 à 10 cm, ont un limbe découpé en 5 à 7 lobes séparés par des sinus larges, le lobe central est parfois ovale.
@@ -587,10 +603,12 @@
           <t>Origine et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La coloquinte est une plante que l'on trouve dans l'Ancien Monde. Cette espèce serait originaire des régions désertiques sablonneuses d'Afrique. Les graines les plus anciennes (VIe millénaire avant notre ère)  ont été trouvées en Israël[6] à Nahal Hemar (en). Elle aurait été cultivée déjà à l'époque des Assyriens. Répandue par la culture, notamment en Afrique du Nord et en Inde.
-Cette plante est citée sous le nom de Coloquintida dans le capitulaire De Villis parmi les plantes recommandées pour les jardins du royaume. Selon la Bible, des sculptures de coloquintes ornaient le Temple de Salomon à Jérusalem[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La coloquinte est une plante que l'on trouve dans l'Ancien Monde. Cette espèce serait originaire des régions désertiques sablonneuses d'Afrique. Les graines les plus anciennes (VIe millénaire avant notre ère)  ont été trouvées en Israël à Nahal Hemar (en). Elle aurait été cultivée déjà à l'époque des Assyriens. Répandue par la culture, notamment en Afrique du Nord et en Inde.
+Cette plante est citée sous le nom de Coloquintida dans le capitulaire De Villis parmi les plantes recommandées pour les jardins du royaume. Selon la Bible, des sculptures de coloquintes ornaient le Temple de Salomon à Jérusalem.
 </t>
         </is>
       </c>
@@ -619,10 +637,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La pulpe séchée du fruit récolté avant complète maturité est un laxatif violent. Très amère, elle est inconsommable sauf comme purgatif. Elle est utilisée aussi comme antirhumatismal, anthelminthique, et comme remède contre les  infections de la peau.
-Les graines, comestibles, contiennent 30 à 40 % d’une huile jaune clair, qui renferme un alcaloïde, un glucoside et une saponine. Elles montrent un effet insulino-stimulant[8]. Ces graines torréfiées, riches en lipides et en protéines, ont un goût de noix et sont consommées entières dans certains pays d'Afrique.
+Les graines, comestibles, contiennent 30 à 40 % d’une huile jaune clair, qui renferme un alcaloïde, un glucoside et une saponine. Elles montrent un effet insulino-stimulant. Ces graines torréfiées, riches en lipides et en protéines, ont un goût de noix et sont consommées entières dans certains pays d'Afrique.
 Les racines ont des propriétés purgatives et sont utilisées contre la jaunisse, les rhumatismes et les maladies urinaires.
 </t>
         </is>
